--- a/pedigree-data/pedigree-data.xlsx
+++ b/pedigree-data/pedigree-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\pedigree-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD84253-E47E-4E9E-81EE-54B46C9126F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86BCE65-E7AC-4A09-A4C8-E78F172AA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="5235" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>Pedigree Notation</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>ACCENUMB</t>
   </si>
   <si>
@@ -53,18 +50,12 @@
     <t>Information</t>
   </si>
   <si>
-    <t>If the pedigree string is available. This can be provided in the "DATA-STRING" sheet.</t>
-  </si>
-  <si>
     <t>Pedigree string</t>
   </si>
   <si>
     <t>Description of Crossing Procedure (if applicable)</t>
   </si>
   <si>
-    <t>The "DATA" sheet contains information about the two parents of a line/germplasm. If known, the first one should be the female parent and the second the male parent. If this is not known, the order doesn't matter.</t>
-  </si>
-  <si>
     <t>Help and Assistance</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
   </si>
   <si>
     <t>CACTUAR-6 * CACTUAR-6</t>
-  </si>
-  <si>
-    <t>Two types of pedigree information can be provided (Pedigree strings into sheet 'DATA-STRING' or atomised pedigree definitions into sheet 'DATA'). In all cases the MCPD field "ACCENUMB" should be used to identify the line/germplasm.</t>
   </si>
   <si>
     <r>
@@ -166,12 +154,88 @@
       <t>germinate@hutton.ac.uk</t>
     </r>
   </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>DEFINITION</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>A name given to the resource. Typically, a Title will be a name by which the resource is formally known.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>An account of the resource. Description may include but is not limited to: an abstract, a table of contents, a graphical representation, or a free-text account of the resource.</t>
+  </si>
+  <si>
+    <t>Rights</t>
+  </si>
+  <si>
+    <t>Information about rights held in and over the resource. Typically, rights information includes a statement about various property rights associated with the resource, including intellectual property rights.</t>
+  </si>
+  <si>
+    <t>Date of creation</t>
+  </si>
+  <si>
+    <t>A point or period of time associated with an event in the lifecycle of the resource. Date may be used to express temporal information at any level of granularity. Recommended best practice is to use an encoding scheme, such as the W3CDTF profile of ISO 8601 [W3CDTF].</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>An entity responsible for making the resource available. Examples of a Publisher include a person, an organization, or a service. Typically, the name of a Publisher should be used to indicate the entity.</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>The file format, physical medium, or dimensions of the resource. Examples of dimensions include size and duration. Recommended best practice is to use a controlled vocabulary such as the list of Internet Media Types [MIME].</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>A language of the resource. Recommended best practice is to use a controlled vocabulary such as RFC 4646 [RFC4646].</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>A related resource from which the described resource is derived. The described resource may be derived from the related resource in whole or in part. Recommended best practice is to identify the related resource by means of a string conforming to a formal identification system.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>The nature or genre of the resource. Recommended best practice is to use a controlled vocabulary such as the DCMI Type Vocabulary [DCMITYPE]. To describe the file format, physical medium, or dimensions of the resource, use the Format element.</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>The topic of the resource. Typically, the subject will be represented using keywords, key phrases, or classification codes. Recommended best practice is to use a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>The individual that can be contacted about this dataset.</t>
+  </si>
+  <si>
+    <t>Two types of pedigree information can be provided (Pedigree strings into sheet 'DATA-STRING' or atomised pedigree definitions into sheet 'DATA'). In all cases the MCPD field "ACCENUMB" should be used to identify the line/germplasm.
+If the pedigree string is available. This can be provided in the "DATA-STRING" sheet.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,19 +272,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -300,51 +373,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -358,6 +439,106 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -387,8 +568,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -403,6 +584,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C12" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
@@ -417,7 +610,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C2" insertRow="1" totalsRowShown="0" headerRowCellStyle="Warning Text">
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
@@ -429,7 +622,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
@@ -442,12 +635,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table25" displayName="Table25" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ACCENUMB"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pedigree Notation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -717,70 +910,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="3" width="86.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="B12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -802,22 +1106,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -846,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -858,13 +1162,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -907,167 +1211,167 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>23</v>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>23</v>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1105,10 +1409,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1116,134 +1420,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/pedigree-data/pedigree-data.xlsx
+++ b/pedigree-data/pedigree-data.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\pedigree-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86BCE65-E7AC-4A09-A4C8-E78F172AA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841C2D96-CC9F-43DB-9773-F7CDE70E5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="5235" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17610" yWindow="5775" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
-    <sheet name="DATA" sheetId="4" r:id="rId2"/>
-    <sheet name="DATA-STRING" sheetId="1" r:id="rId3"/>
-    <sheet name="DATA_EXAMPLE" sheetId="5" r:id="rId4"/>
-    <sheet name="DATA-STRING_EXAMPLE" sheetId="6" r:id="rId5"/>
+    <sheet name="ATTRIBUTES" sheetId="7" r:id="rId2"/>
+    <sheet name="COLLABORATORS" sheetId="8" r:id="rId3"/>
+    <sheet name="DATA" sheetId="4" r:id="rId4"/>
+    <sheet name="DATA-STRING" sheetId="1" r:id="rId5"/>
+    <sheet name="DATA_EXAMPLE" sheetId="5" r:id="rId6"/>
+    <sheet name="DATA-STRING_EXAMPLE" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>Pedigree Notation</t>
   </si>
@@ -229,6 +231,69 @@
   <si>
     <t>Two types of pedigree information can be provided (Pedigree strings into sheet 'DATA-STRING' or atomised pedigree definitions into sheet 'DATA'). In all cases the MCPD field "ACCENUMB" should be used to identify the line/germplasm.
 If the pedigree string is available. This can be provided in the "DATA-STRING" sheet.</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ValidTypes</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Last name (surname) of the author(s), researcher(s), scientist(s), student(s) responsible for producing the information product.</t>
+  </si>
+  <si>
+    <t>First name (and middle name if available) of the author(s), researcher(s), scientist(s), student(s) responsible for producing the information product.</t>
+  </si>
+  <si>
+    <t>E-mail address of the author(s), researcher(s), scientist(s), student(s) responsible for producing the information product.</t>
+  </si>
+  <si>
+    <t>Phone number of the author(s), researcher(s), scientist(s), student(s) responsible for producing the information product.</t>
+  </si>
+  <si>
+    <t>Author's affiliation when the resource was created.</t>
+  </si>
+  <si>
+    <t>Address of institution of affiliation when the resource was created.</t>
+  </si>
+  <si>
+    <t>The 2 letter country code of the institution (ISO 3166-1 alpha-2).</t>
   </si>
 </sst>
 </file>
@@ -378,7 +443,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -419,19 +484,47 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -541,7 +634,11 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -568,8 +665,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -584,18 +681,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C12" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6CE7D7D-83CF-42E2-87AA-D11D615D82C0}" name="Table16" displayName="Table16" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{D6CE7D7D-83CF-42E2-87AA-D11D615D82C0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CFD0435B-FD20-42CB-8718-1263D25E739B}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{C1DC0908-148D-4A41-9005-FDB1AEDF3B51}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{EA4F4071-3CBC-47C6-A9C6-C504737BAF68}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G2" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{EB51BA62-2727-4200-B7D8-057208B3FEC6}" name="Last Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3FE635F1-089E-463B-8A6D-B034D0E126FE}" name="First Name" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C12062F0-A3C2-46A9-8036-0A950C648E09}" name="Email" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8BF0A504-69D1-4C2F-85DE-E9765CED3915}" name="Phone" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6C6E2FCE-61E0-4613-B940-315C7EB76560}" name="Contributor" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7B1363B6-484C-4E33-8AFF-C505CEF8C5A9}" name="Address" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F84C748A-9C75-4957-BB8D-F7413804E2DD}" name="Country" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
@@ -610,7 +735,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C2" insertRow="1" totalsRowShown="0" headerRowCellStyle="Warning Text">
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
@@ -622,7 +747,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
@@ -635,12 +760,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table25" displayName="Table25" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ACCENUMB"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pedigree Notation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -913,7 +1038,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1202,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1089,6 +1214,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB452A4-99BD-422B-9790-443B1DD93979}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5" xr:uid="{5386ECD3-9487-4091-8D57-576FBC5ABA11}">
+      <formula1>$H$2:$H$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F08308-FCA7-483B-AFD8-9E1EB766D26C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1127,7 +1391,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 E2">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1146,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -1174,7 +1438,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="10" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1189,7 +1453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1388,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>

--- a/pedigree-data/pedigree-data.xlsx
+++ b/pedigree-data/pedigree-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\pedigree-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841C2D96-CC9F-43DB-9773-F7CDE70E5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B09CB-9EFE-4688-984C-929549E8DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="5775" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
     <t>Pedigree Notation</t>
   </si>
@@ -294,6 +294,54 @@
   </si>
   <si>
     <t>The 2 letter country code of the institution (ISO 3166-1 alpha-2).</t>
+  </si>
+  <si>
+    <t>Investigation Title</t>
+  </si>
+  <si>
+    <t>Human-readable string summarising the investigation.</t>
+  </si>
+  <si>
+    <t>Investigation Description</t>
+  </si>
+  <si>
+    <t>Human-readable text describing the investigation in more detail.</t>
+  </si>
+  <si>
+    <t>Investigation unique ID</t>
+  </si>
+  <si>
+    <t>Identifier comprising the unique name of the institution/database hosting the submission of the investigation data, and the accession number of the investigation in that institution.</t>
+  </si>
+  <si>
+    <t>Associated data file link</t>
+  </si>
+  <si>
+    <t>Link to the data file (or digital object) in a public database or in a persistent institutional repository; or identifier of the data file when submitted together with the MIAPPE submission.</t>
+  </si>
+  <si>
+    <t>Associated data file description</t>
+  </si>
+  <si>
+    <t>Description of the format of the data file. May be a standard file format name, or a description of organization of the data in a tabular file.</t>
+  </si>
+  <si>
+    <t>Associated data file version</t>
+  </si>
+  <si>
+    <t>The version of the dataset (the actual data).</t>
+  </si>
+  <si>
+    <t>Contributor role</t>
+  </si>
+  <si>
+    <t>Contributor ID</t>
+  </si>
+  <si>
+    <t>Type of contribution of the person to the investigation (e.g. data submitter; author; corresponding author)</t>
+  </si>
+  <si>
+    <t>An identifier for the data submitter. If that submitter is an individual, ORCID identifiers are recommended.</t>
   </si>
 </sst>
 </file>
@@ -443,7 +491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -488,58 +536,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -579,6 +588,96 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -634,13 +733,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -665,8 +757,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -681,12 +773,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:C12" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C18" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -705,16 +797,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G2" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{EB51BA62-2727-4200-B7D8-057208B3FEC6}" name="Last Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3FE635F1-089E-463B-8A6D-B034D0E126FE}" name="First Name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C12062F0-A3C2-46A9-8036-0A950C648E09}" name="Email" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8BF0A504-69D1-4C2F-85DE-E9765CED3915}" name="Phone" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6C6E2FCE-61E0-4613-B940-315C7EB76560}" name="Contributor" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{7B1363B6-484C-4E33-8AFF-C505CEF8C5A9}" name="Address" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{F84C748A-9C75-4957-BB8D-F7413804E2DD}" name="Country" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:I2" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}"/>
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{EB51BA62-2727-4200-B7D8-057208B3FEC6}" name="Last Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3FE635F1-089E-463B-8A6D-B034D0E126FE}" name="First Name" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{E3142451-8670-4605-BF36-0301B156B2C8}" name="Contributor role" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8E9D858E-7BCF-4C9F-AE24-143586F59356}" name="Contributor ID" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{C12062F0-A3C2-46A9-8036-0A950C648E09}" name="Email" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{8BF0A504-69D1-4C2F-85DE-E9765CED3915}" name="Phone" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6C6E2FCE-61E0-4613-B940-315C7EB76560}" name="Contributor" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{7B1363B6-484C-4E33-8AFF-C505CEF8C5A9}" name="Address" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{F84C748A-9C75-4957-BB8D-F7413804E2DD}" name="Country" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -765,7 +859,7 @@
   <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ACCENUMB"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pedigree Notation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1035,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
@@ -1076,7 +1170,7 @@
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
@@ -1094,7 +1188,7 @@
       </c>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
@@ -1121,7 +1215,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>56</v>
       </c>
@@ -1158,51 +1252,105 @@
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C25" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1272,77 +1420,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F08308-FCA7-483B-AFD8-9E1EB766D26C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="2" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1391,7 +1553,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 E2">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1438,7 +1600,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2">
-    <cfRule type="containsBlanks" dxfId="10" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pedigree-data/pedigree-data.xlsx
+++ b/pedigree-data/pedigree-data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\pedigree-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B09CB-9EFE-4688-984C-929549E8DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB0124F-6B73-491F-B4A9-8355947B080F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
-    <sheet name="ATTRIBUTES" sheetId="7" r:id="rId2"/>
-    <sheet name="COLLABORATORS" sheetId="8" r:id="rId3"/>
-    <sheet name="DATA" sheetId="4" r:id="rId4"/>
-    <sheet name="DATA-STRING" sheetId="1" r:id="rId5"/>
+    <sheet name="DATA" sheetId="4" r:id="rId2"/>
+    <sheet name="DATA-STRING" sheetId="1" r:id="rId3"/>
+    <sheet name="ATTRIBUTES" sheetId="7" r:id="rId4"/>
+    <sheet name="COLLABORATORS" sheetId="8" r:id="rId5"/>
     <sheet name="DATA_EXAMPLE" sheetId="5" r:id="rId6"/>
     <sheet name="DATA-STRING_EXAMPLE" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>Pedigree Notation</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>An identifier for the data submitter. If that submitter is an individual, ORCID identifiers are recommended.</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Please include any additional information that details how this experiment was carried out in a text or Word document and send along with this template. Mandatory fields are highlighted in yellow.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +436,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -491,7 +503,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -542,6 +554,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -549,6 +567,25 @@
     <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -588,6 +625,18 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
@@ -600,44 +649,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -731,6 +742,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -773,48 +791,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:C18" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6CE7D7D-83CF-42E2-87AA-D11D615D82C0}" name="Table16" displayName="Table16" ref="A1:C2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{D6CE7D7D-83CF-42E2-87AA-D11D615D82C0}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CFD0435B-FD20-42CB-8718-1263D25E739B}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{C1DC0908-148D-4A41-9005-FDB1AEDF3B51}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{EA4F4071-3CBC-47C6-A9C6-C504737BAF68}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:I2" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}"/>
-  <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{EB51BA62-2727-4200-B7D8-057208B3FEC6}" name="Last Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3FE635F1-089E-463B-8A6D-B034D0E126FE}" name="First Name" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{E3142451-8670-4605-BF36-0301B156B2C8}" name="Contributor role" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{8E9D858E-7BCF-4C9F-AE24-143586F59356}" name="Contributor ID" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{C12062F0-A3C2-46A9-8036-0A950C648E09}" name="Email" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{8BF0A504-69D1-4C2F-85DE-E9765CED3915}" name="Phone" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{6C6E2FCE-61E0-4613-B940-315C7EB76560}" name="Contributor" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{7B1363B6-484C-4E33-8AFF-C505CEF8C5A9}" name="Address" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{F84C748A-9C75-4957-BB8D-F7413804E2DD}" name="Country" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
@@ -829,13 +817,43 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C2" insertRow="1" totalsRowShown="0" headerRowCellStyle="Warning Text">
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ACCENUMB"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pedigree string"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pedigree Notation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6CE7D7D-83CF-42E2-87AA-D11D615D82C0}" name="Table16" displayName="Table16" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{D6CE7D7D-83CF-42E2-87AA-D11D615D82C0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CFD0435B-FD20-42CB-8718-1263D25E739B}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{C1DC0908-148D-4A41-9005-FDB1AEDF3B51}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{EA4F4071-3CBC-47C6-A9C6-C504737BAF68}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:I2" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}"/>
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{EB51BA62-2727-4200-B7D8-057208B3FEC6}" name="Last Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3FE635F1-089E-463B-8A6D-B034D0E126FE}" name="First Name" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{E3142451-8670-4605-BF36-0301B156B2C8}" name="Contributor role" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{8E9D858E-7BCF-4C9F-AE24-143586F59356}" name="Contributor ID" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C12062F0-A3C2-46A9-8036-0A950C648E09}" name="Email" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8BF0A504-69D1-4C2F-85DE-E9765CED3915}" name="Phone" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6C6E2FCE-61E0-4613-B940-315C7EB76560}" name="Contributor" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{7B1363B6-484C-4E33-8AFF-C505CEF8C5A9}" name="Address" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F84C748A-9C75-4957-BB8D-F7413804E2DD}" name="Country" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -859,7 +877,7 @@
   <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ACCENUMB"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pedigree Notation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1129,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1339,18 +1357,30 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="19" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1362,6 +1392,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:C2 E2">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FEMALE Parent" prompt="This is the female parent." sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MALE Parent" prompt="This is the male parent." sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description of crossing" prompt="Enter information relating to the crossing procedure here if known. This is an optional column and should only be used if required." sqref="D1" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Author" prompt="The person responsible for generating the pedigree data." sqref="F1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="E1" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:C2">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree String" prompt="The full pedigree not atomised into component parts. For example (A*B)*(C*D)" sqref="B1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Notation" prompt="If known please indicate Purdy or Lamacraft notations OR the name of the pedigree nomenclature." sqref="C1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB452A4-99BD-422B-9790-443B1DD93979}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1418,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F08308-FCA7-483B-AFD8-9E1EB766D26C}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1507,107 +1638,6 @@
       <c r="I3" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:C2 E2">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FEMALE Parent" prompt="This is the female parent." sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MALE Parent" prompt="This is the male parent." sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description of crossing" prompt="Enter information relating to the crossing procedure here if known. This is an optional column and should only be used if required." sqref="D1" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Author" prompt="The person responsible for generating the pedigree data." sqref="F1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="E1" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:C2">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree String" prompt="The full pedigree not atomised into component parts. For example (A*B)*(C*D)" sqref="B1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Notation" prompt="If known please indicate Purdy or Lamacraft notations OR the name of the pedigree nomenclature." sqref="C1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/pedigree-data/pedigree-data.xlsx
+++ b/pedigree-data/pedigree-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\pedigree-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB0124F-6B73-491F-B4A9-8355947B080F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB269A6-4841-4377-BD0C-7AD14ACF5DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="DATA-STRING" sheetId="1" r:id="rId3"/>
     <sheet name="ATTRIBUTES" sheetId="7" r:id="rId4"/>
     <sheet name="COLLABORATORS" sheetId="8" r:id="rId5"/>
-    <sheet name="DATA_EXAMPLE" sheetId="5" r:id="rId6"/>
-    <sheet name="DATA-STRING_EXAMPLE" sheetId="6" r:id="rId7"/>
+    <sheet name="TYPES" sheetId="9" r:id="rId6"/>
+    <sheet name="DATA_EXAMPLE" sheetId="5" r:id="rId7"/>
+    <sheet name="DATA-STRING_EXAMPLE" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -503,7 +504,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -513,13 +514,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -551,9 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -567,6 +564,27 @@
     <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -637,20 +655,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -742,13 +746,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -791,12 +788,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:C18" xr:uid="{5A4212E2-5B5F-45B6-91E5-6EBD3F3AE01D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{F0424E51-B0A0-46F0-BA82-F2B323101391}" name="LABEL" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6EC74255-D8AD-47EA-9625-524A984E5C69}" name="DEFINITION" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{73DAAABC-906F-4EA2-A8D3-49F221DA6008}" name="VALUE" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -842,24 +839,34 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:I2" xr:uid="{2DF20411-7966-4AF2-ADBD-93E1C6FE937B}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{EB51BA62-2727-4200-B7D8-057208B3FEC6}" name="Last Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3FE635F1-089E-463B-8A6D-B034D0E126FE}" name="First Name" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{E3142451-8670-4605-BF36-0301B156B2C8}" name="Contributor role" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{8E9D858E-7BCF-4C9F-AE24-143586F59356}" name="Contributor ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{C12062F0-A3C2-46A9-8036-0A950C648E09}" name="Email" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8BF0A504-69D1-4C2F-85DE-E9765CED3915}" name="Phone" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{6C6E2FCE-61E0-4613-B940-315C7EB76560}" name="Contributor" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{7B1363B6-484C-4E33-8AFF-C505CEF8C5A9}" name="Address" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{F84C748A-9C75-4957-BB8D-F7413804E2DD}" name="Country" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{EB51BA62-2727-4200-B7D8-057208B3FEC6}" name="Last Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3FE635F1-089E-463B-8A6D-B034D0E126FE}" name="First Name" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{E3142451-8670-4605-BF36-0301B156B2C8}" name="Contributor role" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{8E9D858E-7BCF-4C9F-AE24-143586F59356}" name="Contributor ID" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C12062F0-A3C2-46A9-8036-0A950C648E09}" name="Email" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{8BF0A504-69D1-4C2F-85DE-E9765CED3915}" name="Phone" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{6C6E2FCE-61E0-4613-B940-315C7EB76560}" name="Contributor" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{7B1363B6-484C-4E33-8AFF-C505CEF8C5A9}" name="Address" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F84C748A-9C75-4957-BB8D-F7413804E2DD}" name="Country" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7ABB2AE4-1B0F-4C22-A33C-08150024347D}" name="Table9" displayName="Table9" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{7ABB2AE4-1B0F-4C22-A33C-08150024347D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{78AFA27B-7B6F-4375-A0FF-A02CACE100CF}" name="ValidTypes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
@@ -872,12 +879,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table25" displayName="Table25" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ACCENUMB"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pedigree Notation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1160,227 +1167,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="19" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1409,19 +1416,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1430,7 +1437,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 E2">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1465,19 +1472,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1494,15 +1501,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB452A4-99BD-422B-9790-443B1DD93979}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="H1" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1512,40 +1519,24 @@
       <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5" xr:uid="{5386ECD3-9487-4091-8D57-576FBC5ABA11}">
-      <formula1>$H$2:$H$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5386ECD3-9487-4091-8D57-576FBC5ABA11}">
+          <x14:formula1>
+            <xm:f>TYPES!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1569,73 +1560,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1646,11 +1637,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2814B9-7AB0-40DB-B5F6-EEABC698AED5}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="E1:F1"/>
@@ -1805,30 +1842,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description of crossing" prompt="Enter information relating to the crossing procedure here if known. This is an optional column and should only be used if required." sqref="D1" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
@@ -1844,7 +1857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
